--- a/final-project-review-times.xlsx
+++ b/final-project-review-times.xlsx
@@ -8,14 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/eric/Development/Source/cpsc-24500/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87BCD698-62E1-E946-B03F-DD5B80BC44F4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1DADA24-8C00-5D4F-8CA9-2EC8DB3624F1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="64900" yWindow="26200" windowWidth="26880" windowHeight="26720" xr2:uid="{69E90249-C788-7644-B418-6A43D7DEF21A}"/>
+    <workbookView xWindow="18240" yWindow="6920" windowWidth="32940" windowHeight="27900" xr2:uid="{69E90249-C788-7644-B418-6A43D7DEF21A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$F$21</definedName>
+  </definedNames>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -31,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="30">
   <si>
     <t>Friday</t>
   </si>
@@ -87,55 +90,40 @@
     <t>Name</t>
   </si>
   <si>
-    <t>Demo Submitted</t>
-  </si>
-  <si>
-    <t>Y</t>
-  </si>
-  <si>
-    <t>N</t>
-  </si>
-  <si>
-    <t>?</t>
-  </si>
-  <si>
     <t>Juan Moncada</t>
   </si>
   <si>
-    <t>Y/?</t>
-  </si>
-  <si>
-    <t>?/?</t>
-  </si>
-  <si>
-    <t>N/N</t>
-  </si>
-  <si>
-    <t>?/Y</t>
-  </si>
-  <si>
-    <t>N/Y</t>
-  </si>
-  <si>
-    <t>from 4-6pm CT</t>
-  </si>
-  <si>
-    <t>from 6-10pm CT</t>
-  </si>
-  <si>
-    <t>from 1-2pm</t>
-  </si>
-  <si>
-    <t>from 2-3pm</t>
-  </si>
-  <si>
     <t>Sebastian Grimm</t>
   </si>
   <si>
-    <t>Demo Complete</t>
-  </si>
-  <si>
     <t>TBD</t>
+  </si>
+  <si>
+    <t>4-6pm CT</t>
+  </si>
+  <si>
+    <t>6-10pm CT</t>
+  </si>
+  <si>
+    <t>1-2pm CT</t>
+  </si>
+  <si>
+    <t>2-3pm CT</t>
+  </si>
+  <si>
+    <t>Christopher Cooper</t>
+  </si>
+  <si>
+    <t>James Archey</t>
+  </si>
+  <si>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t>Participants</t>
+  </si>
+  <si>
+    <t>David is in Web Develoment class</t>
   </si>
 </sst>
 </file>
@@ -145,7 +133,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -153,13 +141,28 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -174,12 +177,20 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -496,291 +507,326 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8964692-9E79-B841-82B7-608B598E1C66}">
-  <dimension ref="A1:G23"/>
+  <dimension ref="A1:G17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="G30" sqref="E30:G30"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17:D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="32.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.33203125" customWidth="1"/>
+    <col min="3" max="3" width="26.33203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="11.33203125" customWidth="1"/>
     <col min="5" max="5" width="26.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.83203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15" customWidth="1"/>
+    <col min="6" max="6" width="12" customWidth="1"/>
+    <col min="7" max="7" width="42.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+      <c r="A1" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E1" t="s">
+      <c r="E1" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F1" t="s">
-        <v>33</v>
-      </c>
-      <c r="G1" t="s">
-        <v>18</v>
+      <c r="F1" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="2">
-        <v>43808</v>
-      </c>
-      <c r="C2" t="s">
-        <v>28</v>
+      <c r="C2" s="2">
+        <v>43808</v>
+      </c>
+      <c r="D2" t="s">
+        <v>21</v>
       </c>
       <c r="E2" t="s">
         <v>2</v>
       </c>
-      <c r="F2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G2" t="s">
-        <v>19</v>
+      <c r="F2">
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="2">
-        <v>43808</v>
-      </c>
-      <c r="C3" t="s">
-        <v>28</v>
+        <v>25</v>
+      </c>
+      <c r="C3" s="2">
+        <v>43808</v>
+      </c>
+      <c r="D3" t="s">
+        <v>21</v>
       </c>
       <c r="E3" t="s">
         <v>2</v>
       </c>
-      <c r="F3" t="s">
-        <v>19</v>
-      </c>
-      <c r="G3" t="s">
-        <v>19</v>
+      <c r="F3">
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="2">
-        <v>43808</v>
-      </c>
-      <c r="C4" t="s">
-        <v>28</v>
+        <v>4</v>
+      </c>
+      <c r="C4" s="2">
+        <v>43808</v>
+      </c>
+      <c r="D4" t="s">
+        <v>21</v>
       </c>
       <c r="E4" t="s">
         <v>2</v>
       </c>
-      <c r="F4" t="s">
-        <v>24</v>
-      </c>
-      <c r="G4" t="s">
-        <v>25</v>
+      <c r="F4">
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>22</v>
-      </c>
-      <c r="B5" s="2">
-        <v>43808</v>
-      </c>
-      <c r="C5" t="s">
-        <v>28</v>
+        <v>5</v>
+      </c>
+      <c r="C5" s="2">
+        <v>43808</v>
+      </c>
+      <c r="D5" t="s">
+        <v>21</v>
       </c>
       <c r="E5" t="s">
         <v>2</v>
       </c>
-      <c r="F5" t="s">
-        <v>21</v>
-      </c>
-      <c r="G5" t="s">
-        <v>20</v>
+      <c r="F5">
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" s="2">
-        <v>43808</v>
-      </c>
-      <c r="C6" t="s">
-        <v>28</v>
+        <v>26</v>
+      </c>
+      <c r="C6" s="2">
+        <v>43808</v>
+      </c>
+      <c r="D6" t="s">
+        <v>21</v>
       </c>
       <c r="E6" t="s">
         <v>2</v>
       </c>
-      <c r="F6" t="s">
-        <v>19</v>
-      </c>
-      <c r="G6" t="s">
-        <v>19</v>
+      <c r="F6">
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" s="2">
-        <v>43808</v>
-      </c>
-      <c r="C7" t="s">
-        <v>28</v>
+        <v>18</v>
+      </c>
+      <c r="C7" s="2">
+        <v>43808</v>
+      </c>
+      <c r="D7" t="s">
+        <v>21</v>
       </c>
       <c r="E7" t="s">
         <v>2</v>
       </c>
-      <c r="F7" t="s">
-        <v>26</v>
-      </c>
-      <c r="G7" t="s">
-        <v>27</v>
+      <c r="F7">
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" s="2">
-        <v>43808</v>
-      </c>
-      <c r="C8" t="s">
-        <v>28</v>
+        <v>8</v>
+      </c>
+      <c r="C8" s="2">
+        <v>43808</v>
+      </c>
+      <c r="D8" t="s">
+        <v>21</v>
       </c>
       <c r="E8" t="s">
         <v>2</v>
       </c>
-      <c r="F8" t="s">
-        <v>21</v>
-      </c>
-      <c r="G8" t="s">
-        <v>20</v>
+      <c r="F8">
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9" s="2">
-        <v>43808</v>
-      </c>
-      <c r="C9" t="s">
-        <v>28</v>
+        <v>9</v>
+      </c>
+      <c r="C9" s="2">
+        <v>43808</v>
+      </c>
+      <c r="D9" t="s">
+        <v>21</v>
       </c>
       <c r="E9" t="s">
         <v>2</v>
       </c>
-      <c r="F9" t="s">
-        <v>19</v>
-      </c>
-      <c r="G9" t="s">
-        <v>19</v>
+      <c r="F9">
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>32</v>
-      </c>
-      <c r="B10" s="2">
-        <v>43808</v>
-      </c>
-      <c r="C10" t="s">
-        <v>28</v>
+        <v>10</v>
+      </c>
+      <c r="C10" s="2">
+        <v>43808</v>
+      </c>
+      <c r="D10" t="s">
+        <v>21</v>
       </c>
       <c r="E10" t="s">
         <v>2</v>
       </c>
-      <c r="F10" t="s">
+      <c r="F10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
         <v>19</v>
       </c>
-      <c r="G10" t="s">
-        <v>20</v>
+      <c r="C11" s="2">
+        <v>43808</v>
+      </c>
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11" t="s">
+        <v>2</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>34</v>
-      </c>
-      <c r="B12" s="2">
-        <v>43808</v>
-      </c>
-      <c r="C12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" s="2">
+        <v>43808</v>
+      </c>
+      <c r="D12" t="s">
+        <v>21</v>
+      </c>
+      <c r="E12" t="s">
+        <v>2</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" s="3"/>
+      <c r="C13" s="4">
+        <v>43808</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E13" s="3"/>
+      <c r="F13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>1</v>
+      </c>
+      <c r="C14" s="2">
+        <v>43811</v>
+      </c>
+      <c r="D14" t="s">
+        <v>23</v>
+      </c>
+      <c r="E14" t="s">
+        <v>2</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>7</v>
+      </c>
+      <c r="B15" t="s">
+        <v>6</v>
+      </c>
+      <c r="C15" s="2">
+        <v>43811</v>
+      </c>
+      <c r="D15" t="s">
+        <v>24</v>
+      </c>
+      <c r="E15" t="s">
+        <v>2</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>1</v>
-      </c>
-      <c r="B16" s="2">
+        <v>12</v>
+      </c>
+      <c r="C16" s="2">
         <v>43811</v>
       </c>
-      <c r="C16" t="s">
-        <v>30</v>
+      <c r="D16" t="s">
+        <v>24</v>
       </c>
       <c r="E16" t="s">
         <v>2</v>
       </c>
-      <c r="F16" t="s">
-        <v>19</v>
-      </c>
-      <c r="G16" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>7</v>
-      </c>
-      <c r="B19" s="2">
-        <v>43811</v>
-      </c>
-      <c r="C19" t="s">
-        <v>31</v>
-      </c>
-      <c r="D19" t="s">
-        <v>6</v>
-      </c>
-      <c r="E19" t="s">
-        <v>2</v>
-      </c>
-      <c r="F19" t="s">
-        <v>23</v>
-      </c>
-      <c r="G19" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
+      <c r="F16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
         <v>0</v>
       </c>
+      <c r="C17" s="2">
+        <v>43812</v>
+      </c>
+      <c r="D17" t="s">
+        <v>21</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F21">
+    <sortCondition ref="C2:C21"/>
+    <sortCondition ref="D2:D21"/>
+    <sortCondition ref="A2:A21"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/final-project-review-times.xlsx
+++ b/final-project-review-times.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/eric/Development/Source/cpsc-24500/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\source\cpsc-24500\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1DADA24-8C00-5D4F-8CA9-2EC8DB3624F1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E07D700A-1005-4AAB-9196-40B3BED6EC06}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="18240" yWindow="6920" windowWidth="32940" windowHeight="27900" xr2:uid="{69E90249-C788-7644-B418-6A43D7DEF21A}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21820" xr2:uid="{69E90249-C788-7644-B418-6A43D7DEF21A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$F$21</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$G$17</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="39">
   <si>
     <t>Friday</t>
   </si>
@@ -124,6 +124,33 @@
   </si>
   <si>
     <t>David is in Web Develoment class</t>
+  </si>
+  <si>
+    <t>4:30pm CT</t>
+  </si>
+  <si>
+    <t>Scott Carrington</t>
+  </si>
+  <si>
+    <t>Bailey Cook</t>
+  </si>
+  <si>
+    <t>Christopher Fillak</t>
+  </si>
+  <si>
+    <t>Stephen Montague</t>
+  </si>
+  <si>
+    <t>Muhamad Syahir Sazali</t>
+  </si>
+  <si>
+    <t>Kamil Szczesniak</t>
+  </si>
+  <si>
+    <t>5:30pm CT</t>
+  </si>
+  <si>
+    <t>5:00pm CT</t>
   </si>
 </sst>
 </file>
@@ -507,13 +534,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8964692-9E79-B841-82B7-608B598E1C66}">
-  <dimension ref="A1:G17"/>
+  <dimension ref="A1:G25"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17:D17"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="32.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="21.33203125" customWidth="1"/>
@@ -521,10 +548,10 @@
     <col min="4" max="4" width="11.33203125" customWidth="1"/>
     <col min="5" max="5" width="26.33203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12" customWidth="1"/>
-    <col min="7" max="7" width="42.6640625" customWidth="1"/>
+    <col min="7" max="7" width="42.58203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" s="5" t="s">
         <v>17</v>
       </c>
@@ -547,129 +574,129 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="2">
+        <v>43805</v>
+      </c>
+      <c r="D2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="2">
-        <v>43808</v>
-      </c>
-      <c r="D2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E2" t="s">
-        <v>2</v>
-      </c>
-      <c r="F2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+      <c r="C3" s="2">
+        <v>43808</v>
+      </c>
+      <c r="D3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
         <v>25</v>
       </c>
-      <c r="C3" s="2">
-        <v>43808</v>
-      </c>
-      <c r="D3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E3" t="s">
-        <v>2</v>
-      </c>
-      <c r="F3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+      <c r="C4" s="2">
+        <v>43808</v>
+      </c>
+      <c r="D4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" t="s">
+        <v>2</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="2">
-        <v>43808</v>
-      </c>
-      <c r="D4" t="s">
-        <v>21</v>
-      </c>
-      <c r="E4" t="s">
-        <v>2</v>
-      </c>
-      <c r="F4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+      <c r="C5" s="2">
+        <v>43808</v>
+      </c>
+      <c r="D5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" t="s">
+        <v>2</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="2">
-        <v>43808</v>
-      </c>
-      <c r="D5" t="s">
-        <v>21</v>
-      </c>
-      <c r="E5" t="s">
-        <v>2</v>
-      </c>
-      <c r="F5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
+      <c r="C6" s="2">
+        <v>43808</v>
+      </c>
+      <c r="D6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6" t="s">
+        <v>2</v>
+      </c>
+      <c r="F6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
         <v>26</v>
       </c>
-      <c r="C6" s="2">
-        <v>43808</v>
-      </c>
-      <c r="D6" t="s">
-        <v>21</v>
-      </c>
-      <c r="E6" t="s">
-        <v>2</v>
-      </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
+      <c r="C7" s="2">
+        <v>43808</v>
+      </c>
+      <c r="D7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7" t="s">
+        <v>2</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="2">
-        <v>43808</v>
-      </c>
-      <c r="D7" t="s">
-        <v>21</v>
-      </c>
-      <c r="E7" t="s">
-        <v>2</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
+      <c r="C8" s="2">
+        <v>43808</v>
+      </c>
+      <c r="D8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8" t="s">
+        <v>2</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="2">
-        <v>43808</v>
-      </c>
-      <c r="D8" t="s">
-        <v>21</v>
-      </c>
-      <c r="E8" t="s">
-        <v>2</v>
-      </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>9</v>
-      </c>
       <c r="C9" s="2">
         <v>43808</v>
       </c>
@@ -680,10 +707,10 @@
         <v>2</v>
       </c>
       <c r="F9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>10</v>
       </c>
@@ -700,7 +727,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>19</v>
       </c>
@@ -717,7 +744,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -734,7 +761,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13" s="3" t="s">
         <v>20</v>
       </c>
@@ -750,7 +777,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>1</v>
       </c>
@@ -767,7 +794,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>7</v>
       </c>
@@ -790,7 +817,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>12</v>
       </c>
@@ -807,7 +834,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>0</v>
       </c>
@@ -821,11 +848,65 @@
         <v>0</v>
       </c>
     </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="C18" s="2"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="C19" s="2"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>31</v>
+      </c>
+      <c r="C20" s="2">
+        <v>43811</v>
+      </c>
+      <c r="D20" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>34</v>
+      </c>
+      <c r="C23" s="2">
+        <v>43811</v>
+      </c>
+      <c r="D23" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>36</v>
+      </c>
+      <c r="C25" s="2">
+        <v>43811</v>
+      </c>
+      <c r="D25" t="s">
+        <v>38</v>
+      </c>
+    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F21">
-    <sortCondition ref="C2:C21"/>
-    <sortCondition ref="D2:D21"/>
-    <sortCondition ref="A2:A21"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F23">
+    <sortCondition ref="C2:C23"/>
+    <sortCondition ref="D2:D23"/>
+    <sortCondition ref="A2:A23"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/final-project-review-times.xlsx
+++ b/final-project-review-times.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\source\cpsc-24500\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/eric/Development/Source/cpsc-24500/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E07D700A-1005-4AAB-9196-40B3BED6EC06}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F39360AE-9C8A-644A-ADDB-C3D8C60BAD58}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21820" xr2:uid="{69E90249-C788-7644-B418-6A43D7DEF21A}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="46180" windowHeight="27720" xr2:uid="{69E90249-C788-7644-B418-6A43D7DEF21A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$G$17</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$G$15</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,10 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="39">
-  <si>
-    <t>Friday</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="50">
   <si>
     <t xml:space="preserve">Carter Burzlaff </t>
   </si>
@@ -96,15 +93,9 @@
     <t>Sebastian Grimm</t>
   </si>
   <si>
-    <t>TBD</t>
-  </si>
-  <si>
     <t>4-6pm CT</t>
   </si>
   <si>
-    <t>6-10pm CT</t>
-  </si>
-  <si>
     <t>1-2pm CT</t>
   </si>
   <si>
@@ -141,9 +132,6 @@
     <t>Stephen Montague</t>
   </si>
   <si>
-    <t>Muhamad Syahir Sazali</t>
-  </si>
-  <si>
     <t>Kamil Szczesniak</t>
   </si>
   <si>
@@ -151,6 +139,51 @@
   </si>
   <si>
     <t>5:00pm CT</t>
+  </si>
+  <si>
+    <t>Alejandro Rodriguez</t>
+  </si>
+  <si>
+    <t>Fernando Renteria</t>
+  </si>
+  <si>
+    <t>Israel Ramos</t>
+  </si>
+  <si>
+    <t>Kyle Morrell</t>
+  </si>
+  <si>
+    <t>Mariano Franchi</t>
+  </si>
+  <si>
+    <t>Nathaniel Amster</t>
+  </si>
+  <si>
+    <t>Pablo Moreno Jr.</t>
+  </si>
+  <si>
+    <t>Paul Buldak</t>
+  </si>
+  <si>
+    <t>Stephanie Quick</t>
+  </si>
+  <si>
+    <t>Steven Eivaz</t>
+  </si>
+  <si>
+    <t>Web &amp; Distributed Programming</t>
+  </si>
+  <si>
+    <t>Syahir Sazali</t>
+  </si>
+  <si>
+    <t>Jocelyn is in Web Develoment class</t>
+  </si>
+  <si>
+    <t>David Mendez &amp; Jocelyn Murray</t>
+  </si>
+  <si>
+    <t>Software Architecture &amp; Design</t>
   </si>
 </sst>
 </file>
@@ -178,18 +211,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -204,16 +231,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -534,379 +557,609 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8964692-9E79-B841-82B7-608B598E1C66}">
-  <dimension ref="A1:G25"/>
+  <dimension ref="A1:G34"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="32.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="21.33203125" customWidth="1"/>
     <col min="3" max="3" width="26.33203125" style="1" customWidth="1"/>
     <col min="4" max="4" width="11.33203125" customWidth="1"/>
-    <col min="5" max="5" width="26.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="29.1640625" customWidth="1"/>
     <col min="6" max="6" width="12" customWidth="1"/>
-    <col min="7" max="7" width="42.58203125" customWidth="1"/>
+    <col min="7" max="7" width="42.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A1" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B1" s="5" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="F1" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C2" s="2">
         <v>43805</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F2">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C3" s="2">
         <v>43808</v>
       </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C4" s="2">
         <v>43808</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C5" s="2">
         <v>43808</v>
       </c>
       <c r="D5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E5" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C6" s="2">
         <v>43808</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E6" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F6">
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C7" s="2">
         <v>43808</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C8" s="2">
         <v>43808</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C9" s="2">
         <v>43808</v>
       </c>
       <c r="D9" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E9" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C10" s="2">
         <v>43808</v>
       </c>
       <c r="D10" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E10" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C11" s="2">
         <v>43808</v>
       </c>
       <c r="D11" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E11" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C12" s="2">
         <v>43808</v>
       </c>
       <c r="D12" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E12" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A13" s="3" t="s">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>0</v>
+      </c>
+      <c r="C13" s="2">
+        <v>43811</v>
+      </c>
+      <c r="D13" t="s">
         <v>20</v>
       </c>
-      <c r="B13" s="3"/>
-      <c r="C13" s="4">
-        <v>43808</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="E13" s="3"/>
+      <c r="E13" t="s">
+        <v>1</v>
+      </c>
       <c r="F13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>1</v>
+        <v>6</v>
+      </c>
+      <c r="B14" t="s">
+        <v>5</v>
       </c>
       <c r="C14" s="2">
         <v>43811</v>
       </c>
       <c r="D14" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E14" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="G14" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>7</v>
-      </c>
-      <c r="B15" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C15" s="2">
         <v>43811</v>
       </c>
       <c r="D15" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E15" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
-      <c r="G15" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="C16" s="2">
         <v>43811</v>
       </c>
       <c r="D16" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E16" t="s">
-        <v>2</v>
+        <v>49</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>0</v>
-      </c>
-      <c r="C17" s="2">
-        <v>43812</v>
-      </c>
-      <c r="D17" t="s">
-        <v>21</v>
+        <v>29</v>
+      </c>
+      <c r="E17" t="s">
+        <v>49</v>
       </c>
       <c r="F17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="C18" s="2"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="C19" s="2"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>30</v>
+      </c>
+      <c r="E18" t="s">
+        <v>49</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>31</v>
+      </c>
+      <c r="C19" s="2">
+        <v>43811</v>
+      </c>
+      <c r="D19" t="s">
+        <v>33</v>
+      </c>
+      <c r="E19" t="s">
+        <v>49</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>31</v>
-      </c>
-      <c r="C20" s="2">
-        <v>43811</v>
-      </c>
-      <c r="D20" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+        <v>46</v>
+      </c>
+      <c r="E20" t="s">
+        <v>49</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="C21" s="2">
+        <v>43811</v>
+      </c>
+      <c r="D21" t="s">
+        <v>34</v>
+      </c>
+      <c r="E21" t="s">
+        <v>49</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
+        <v>35</v>
+      </c>
+      <c r="C22" s="2">
+        <v>43812</v>
+      </c>
+      <c r="D22" t="s">
+        <v>19</v>
+      </c>
+      <c r="E22" t="s">
+        <v>45</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="C23" s="2">
+        <v>43812</v>
+      </c>
+      <c r="D23" t="s">
+        <v>19</v>
+      </c>
+      <c r="E23" t="s">
+        <v>45</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>48</v>
+      </c>
+      <c r="B24" t="str">
+        <f>B14</f>
+        <v>Flyer Challenge</v>
+      </c>
+      <c r="C24" s="2">
+        <f>C14</f>
         <v>43811</v>
       </c>
-      <c r="D23" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A24" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="D24" t="str">
+        <f>D14</f>
+        <v>2-3pm CT</v>
+      </c>
+      <c r="E24" t="s">
+        <v>45</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>36</v>
       </c>
       <c r="C25" s="2">
-        <v>43811</v>
+        <v>43812</v>
       </c>
       <c r="D25" t="s">
+        <v>19</v>
+      </c>
+      <c r="E25" t="s">
+        <v>45</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>37</v>
+      </c>
+      <c r="C26" s="2">
+        <v>43812</v>
+      </c>
+      <c r="D26" t="s">
+        <v>19</v>
+      </c>
+      <c r="E26" t="s">
+        <v>45</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
         <v>38</v>
       </c>
+      <c r="C27" s="2">
+        <v>43812</v>
+      </c>
+      <c r="D27" t="s">
+        <v>19</v>
+      </c>
+      <c r="E27" t="s">
+        <v>45</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>39</v>
+      </c>
+      <c r="C28" s="2">
+        <v>43812</v>
+      </c>
+      <c r="D28" t="s">
+        <v>19</v>
+      </c>
+      <c r="E28" t="s">
+        <v>45</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>40</v>
+      </c>
+      <c r="C29" s="2">
+        <v>43812</v>
+      </c>
+      <c r="D29" t="s">
+        <v>19</v>
+      </c>
+      <c r="E29" t="s">
+        <v>45</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>41</v>
+      </c>
+      <c r="C30" s="2">
+        <v>43812</v>
+      </c>
+      <c r="D30" t="s">
+        <v>19</v>
+      </c>
+      <c r="E30" t="s">
+        <v>45</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>42</v>
+      </c>
+      <c r="C31" s="2">
+        <v>43812</v>
+      </c>
+      <c r="D31" t="s">
+        <v>19</v>
+      </c>
+      <c r="E31" t="s">
+        <v>45</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>10</v>
+      </c>
+      <c r="C32" s="2">
+        <v>43812</v>
+      </c>
+      <c r="D32" t="s">
+        <v>19</v>
+      </c>
+      <c r="E32" t="s">
+        <v>45</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>43</v>
+      </c>
+      <c r="C33" s="2">
+        <v>43812</v>
+      </c>
+      <c r="D33" t="s">
+        <v>19</v>
+      </c>
+      <c r="E33" t="s">
+        <v>45</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>44</v>
+      </c>
+      <c r="C34" s="2">
+        <v>43812</v>
+      </c>
+      <c r="D34" t="s">
+        <v>19</v>
+      </c>
+      <c r="E34" t="s">
+        <v>45</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F23">
-    <sortCondition ref="C2:C23"/>
-    <sortCondition ref="D2:D23"/>
-    <sortCondition ref="A2:A23"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F19">
+    <sortCondition ref="C2:C19"/>
+    <sortCondition ref="D2:D19"/>
+    <sortCondition ref="A2:A19"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/final-project-review-times.xlsx
+++ b/final-project-review-times.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/eric/Development/Source/cpsc-24500/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F39360AE-9C8A-644A-ADDB-C3D8C60BAD58}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0D90A0F-3ED1-0C4B-B445-41953CC8A021}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="46180" windowHeight="27720" xr2:uid="{69E90249-C788-7644-B418-6A43D7DEF21A}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="53">
   <si>
     <t xml:space="preserve">Carter Burzlaff </t>
   </si>
@@ -114,9 +114,6 @@
     <t>Participants</t>
   </si>
   <si>
-    <t>David is in Web Develoment class</t>
-  </si>
-  <si>
     <t>4:30pm CT</t>
   </si>
   <si>
@@ -177,13 +174,25 @@
     <t>Syahir Sazali</t>
   </si>
   <si>
-    <t>Jocelyn is in Web Develoment class</t>
-  </si>
-  <si>
     <t>David Mendez &amp; Jocelyn Murray</t>
   </si>
   <si>
     <t>Software Architecture &amp; Design</t>
+  </si>
+  <si>
+    <t>Jocelyn is in OOP class</t>
+  </si>
+  <si>
+    <t>David is in Web class</t>
+  </si>
+  <si>
+    <t>3:30pm CT</t>
+  </si>
+  <si>
+    <t>4:00pm CT</t>
+  </si>
+  <si>
+    <t>3:00pm CT</t>
   </si>
 </sst>
 </file>
@@ -211,12 +220,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -231,7 +246,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -241,6 +256,10 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -560,7 +579,7 @@
   <dimension ref="A1:G34"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="C41" sqref="C41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -785,21 +804,23 @@
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
+      <c r="A13" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C13" s="2">
+      <c r="B13" s="5"/>
+      <c r="C13" s="6">
         <v>43811</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D13" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="E13" t="s">
-        <v>1</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
+      <c r="E13" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="F13" s="5">
+        <v>1</v>
+      </c>
+      <c r="G13" s="5"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
@@ -821,7 +842,7 @@
         <v>1</v>
       </c>
       <c r="G14" t="s">
-        <v>26</v>
+        <v>49</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
@@ -843,38 +864,52 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C16" s="2">
         <v>43811</v>
       </c>
       <c r="D16" t="s">
-        <v>27</v>
+        <v>50</v>
       </c>
       <c r="E16" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>29</v>
-      </c>
-      <c r="E17" t="s">
-        <v>49</v>
-      </c>
-      <c r="F17">
-        <v>1</v>
-      </c>
+      <c r="A17" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B17" s="5"/>
+      <c r="C17" s="6">
+        <v>43811</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="F17" s="5">
+        <v>1</v>
+      </c>
+      <c r="G17" s="5"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>30</v>
+        <v>29</v>
+      </c>
+      <c r="C18" s="2">
+        <v>43811</v>
+      </c>
+      <c r="D18" t="s">
+        <v>26</v>
       </c>
       <c r="E18" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F18">
         <v>1</v>
@@ -882,16 +917,16 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C19" s="2">
         <v>43811</v>
       </c>
       <c r="D19" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E19" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F19">
         <v>1</v>
@@ -899,10 +934,16 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>46</v>
+        <v>45</v>
+      </c>
+      <c r="C20" s="2">
+        <v>43811</v>
+      </c>
+      <c r="D20" t="s">
+        <v>51</v>
       </c>
       <c r="E20" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F20">
         <v>1</v>
@@ -910,16 +951,16 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C21" s="2">
         <v>43811</v>
       </c>
       <c r="D21" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E21" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F21">
         <v>1</v>
@@ -927,7 +968,7 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C22" s="2">
         <v>43812</v>
@@ -936,7 +977,7 @@
         <v>19</v>
       </c>
       <c r="E22" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F22">
         <v>1</v>
@@ -953,7 +994,7 @@
         <v>19</v>
       </c>
       <c r="E23" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F23">
         <v>1</v>
@@ -961,7 +1002,7 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B24" t="str">
         <f>B14</f>
@@ -976,18 +1017,18 @@
         <v>2-3pm CT</v>
       </c>
       <c r="E24" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C25" s="2">
         <v>43812</v>
@@ -996,7 +1037,7 @@
         <v>19</v>
       </c>
       <c r="E25" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F25">
         <v>1</v>
@@ -1004,7 +1045,7 @@
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C26" s="2">
         <v>43812</v>
@@ -1013,7 +1054,7 @@
         <v>19</v>
       </c>
       <c r="E26" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F26">
         <v>1</v>
@@ -1021,7 +1062,7 @@
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C27" s="2">
         <v>43812</v>
@@ -1030,7 +1071,7 @@
         <v>19</v>
       </c>
       <c r="E27" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F27">
         <v>1</v>
@@ -1038,7 +1079,7 @@
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C28" s="2">
         <v>43812</v>
@@ -1047,7 +1088,7 @@
         <v>19</v>
       </c>
       <c r="E28" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F28">
         <v>1</v>
@@ -1055,7 +1096,7 @@
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C29" s="2">
         <v>43812</v>
@@ -1064,7 +1105,7 @@
         <v>19</v>
       </c>
       <c r="E29" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F29">
         <v>1</v>
@@ -1072,7 +1113,7 @@
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C30" s="2">
         <v>43812</v>
@@ -1081,7 +1122,7 @@
         <v>19</v>
       </c>
       <c r="E30" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F30">
         <v>1</v>
@@ -1089,7 +1130,7 @@
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C31" s="2">
         <v>43812</v>
@@ -1098,7 +1139,7 @@
         <v>19</v>
       </c>
       <c r="E31" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F31">
         <v>1</v>
@@ -1115,7 +1156,7 @@
         <v>19</v>
       </c>
       <c r="E32" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F32">
         <v>1</v>
@@ -1123,7 +1164,7 @@
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C33" s="2">
         <v>43812</v>
@@ -1132,7 +1173,7 @@
         <v>19</v>
       </c>
       <c r="E33" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F33">
         <v>1</v>
@@ -1140,7 +1181,7 @@
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C34" s="2">
         <v>43812</v>
@@ -1149,7 +1190,7 @@
         <v>19</v>
       </c>
       <c r="E34" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F34">
         <v>1</v>

--- a/final-project-review-times.xlsx
+++ b/final-project-review-times.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10308"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10413"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/eric/Development/Source/cpsc-24500/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F96D9C4-8031-994D-8878-27B97F1141E1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7C5B43B-8794-5240-9955-40E127C6B886}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10100" yWindow="2080" windowWidth="34160" windowHeight="21320" xr2:uid="{69E90249-C788-7644-B418-6A43D7DEF21A}"/>
+    <workbookView xWindow="57600" yWindow="11140" windowWidth="38400" windowHeight="21140" xr2:uid="{69E90249-C788-7644-B418-6A43D7DEF21A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="52">
   <si>
     <t>Object-Oriented Programming</t>
   </si>
@@ -50,9 +50,6 @@
     <t>Class</t>
   </si>
   <si>
-    <t>Name</t>
-  </si>
-  <si>
     <t>Christopher Cooper</t>
   </si>
   <si>
@@ -137,9 +134,6 @@
     <t>GamesCollection</t>
   </si>
   <si>
-    <t>KermitCross</t>
-  </si>
-  <si>
     <t>AlmostHuman</t>
   </si>
   <si>
@@ -152,15 +146,9 @@
     <t>1:30-3:30pm</t>
   </si>
   <si>
-    <t xml:space="preserve">Rolly </t>
-  </si>
-  <si>
     <t>WordJumble</t>
   </si>
   <si>
-    <t>FlashFast</t>
-  </si>
-  <si>
     <t>BudgetTracker</t>
   </si>
   <si>
@@ -173,13 +161,37 @@
     <t>MasterChef</t>
   </si>
   <si>
-    <t>ReactionTesting</t>
-  </si>
-  <si>
-    <t>Tuesday, May 5, 2020</t>
-  </si>
-  <si>
-    <t>BusinessCalculator</t>
+    <t>Life</t>
+  </si>
+  <si>
+    <t>PokemonSearch</t>
+  </si>
+  <si>
+    <t>PuzzleKing</t>
+  </si>
+  <si>
+    <t>ToBeDetermined</t>
+  </si>
+  <si>
+    <t>ThroughThePipes</t>
+  </si>
+  <si>
+    <t>KermitCross?</t>
+  </si>
+  <si>
+    <t>FlashFast?</t>
+  </si>
+  <si>
+    <t>AToBeDetermined</t>
+  </si>
+  <si>
+    <t>PayStub</t>
+  </si>
+  <si>
+    <t>QuickerMcClicker</t>
+  </si>
+  <si>
+    <t> Author</t>
   </si>
 </sst>
 </file>
@@ -189,7 +201,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -213,15 +225,8 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -234,14 +239,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -249,11 +248,20 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -295,19 +303,22 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -622,15 +633,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8964692-9E79-B841-82B7-608B598E1C66}">
-  <dimension ref="A1:J32"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:J33"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection sqref="A1:B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="33.83203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.83203125" style="4" customWidth="1"/>
     <col min="2" max="2" width="23.1640625" style="4" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="24.6640625" style="12" customWidth="1"/>
     <col min="4" max="4" width="11.1640625" style="4" bestFit="1" customWidth="1"/>
@@ -644,7 +656,7 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>4</v>
+        <v>51</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>2</v>
@@ -653,37 +665,37 @@
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A2" s="5" t="s">
-        <v>11</v>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="4" t="s">
+        <v>24</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="C2" s="6">
         <v>43956</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E2" s="7"/>
       <c r="F2" s="5" t="s">
@@ -696,11 +708,17 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3" s="19"/>
-      <c r="C3" s="20"/>
-      <c r="D3" s="21"/>
+        <v>29</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C3" s="6">
+        <v>43956</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>35</v>
+      </c>
       <c r="E3" s="7"/>
       <c r="F3" s="5" t="s">
         <v>0</v>
@@ -708,110 +726,117 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B4" s="13"/>
-      <c r="C4" s="14"/>
-      <c r="D4" s="15"/>
+        <v>27</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C4" s="6">
+        <v>43956</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>35</v>
+      </c>
       <c r="E4" s="7"/>
       <c r="F4" s="5" t="s">
         <v>0</v>
       </c>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="5"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A5" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" s="13"/>
-      <c r="C5" s="16"/>
-      <c r="D5" s="13"/>
-      <c r="E5" s="11"/>
-      <c r="F5" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="G5" s="8"/>
-      <c r="H5" s="8"/>
-      <c r="I5" s="5"/>
-      <c r="J5" s="5"/>
+      <c r="A5" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="B5" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="C5" s="22">
+        <v>43956</v>
+      </c>
+      <c r="D5" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="E5" s="23"/>
+      <c r="F5" s="24" t="s">
+        <v>0</v>
+      </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A6" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="C6" s="6">
-        <v>43958</v>
-      </c>
-      <c r="D6" s="7" t="s">
+      <c r="A6" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="E6" s="11"/>
-      <c r="F6" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="G6" s="8"/>
-      <c r="H6" s="8"/>
-      <c r="I6" s="5"/>
-      <c r="J6" s="5"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A7" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="C7" s="6">
-        <v>43958</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="E7" s="7"/>
-      <c r="F7" s="5" t="s">
+      <c r="C6" s="22">
+        <v>43956</v>
+      </c>
+      <c r="D6" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="E6" s="23"/>
+      <c r="F6" s="24" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="B7" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="C7" s="18">
+        <v>43956</v>
+      </c>
+      <c r="D7" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="E7" s="19"/>
+      <c r="F7" s="20" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A8" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>35</v>
+      <c r="A8" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>36</v>
       </c>
       <c r="C8" s="6">
         <v>43958</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="E8" s="11"/>
+        <v>35</v>
+      </c>
+      <c r="E8" s="7"/>
       <c r="F8" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="G8" s="8"/>
-      <c r="H8" s="8"/>
-      <c r="I8" s="5"/>
-      <c r="J8" s="5"/>
-    </row>
-    <row r="9" spans="1:10" ht="16" x14ac:dyDescent="0.2">
-      <c r="A9" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B9" t="s">
-        <v>36</v>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A9" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>45</v>
       </c>
       <c r="C9" s="6">
         <v>43958</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="E9" s="7"/>
+        <v>35</v>
+      </c>
+      <c r="E9" s="11"/>
       <c r="F9" s="5" t="s">
         <v>0</v>
+      </c>
+      <c r="J9" s="4" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
@@ -819,60 +844,75 @@
         <v>18</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="C10" s="6">
         <v>43958</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E10" s="7"/>
       <c r="F10" s="5" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J10" s="4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>40</v>
+        <v>16</v>
+      </c>
+      <c r="B11" t="s">
+        <v>34</v>
       </c>
       <c r="C11" s="6">
         <v>43958</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E11" s="7"/>
       <c r="F11" s="5" t="s">
         <v>0</v>
       </c>
+      <c r="G11" s="8"/>
+      <c r="H11" s="8"/>
+      <c r="I11" s="5"/>
+      <c r="J11" s="5"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A12" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B12" s="13"/>
-      <c r="C12" s="14"/>
-      <c r="D12" s="15"/>
-      <c r="E12" s="11"/>
+      <c r="A12" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C12" s="6">
+        <v>43958</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="E12" s="7"/>
       <c r="F12" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="G12" s="8"/>
-      <c r="H12" s="8"/>
-      <c r="I12" s="5"/>
-      <c r="J12" s="5"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B13" s="19"/>
-      <c r="C13" s="20"/>
-      <c r="D13" s="21"/>
+        <v>26</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C13" s="6">
+        <v>43956</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>35</v>
+      </c>
       <c r="E13" s="7"/>
       <c r="F13" s="5" t="s">
         <v>0</v>
@@ -880,16 +920,16 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C14" s="6">
         <v>43958</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E14" s="7"/>
       <c r="F14" s="5" t="s">
@@ -898,16 +938,16 @@
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>41</v>
+        <v>11</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>43</v>
       </c>
       <c r="C15" s="6">
-        <v>43956</v>
+        <v>43958</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E15" s="7"/>
       <c r="F15" s="5" t="s">
@@ -915,192 +955,216 @@
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A16" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>42</v>
+      <c r="A16" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>33</v>
       </c>
       <c r="C16" s="6">
         <v>43958</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="E16" s="7"/>
+        <v>35</v>
+      </c>
+      <c r="E16" s="11"/>
       <c r="F16" s="5" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="B17" s="19"/>
-      <c r="C17" s="20"/>
-      <c r="D17" s="21"/>
+        <v>20</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C17" s="6">
+        <v>43958</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>35</v>
+      </c>
       <c r="E17" s="7"/>
       <c r="F17" s="5" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A18" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="B18" s="5" t="s">
-        <v>43</v>
+      <c r="A18" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>32</v>
       </c>
       <c r="C18" s="6">
         <v>43958</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="E18" s="11"/>
+        <v>35</v>
+      </c>
+      <c r="E18" s="7"/>
       <c r="F18" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="G18" s="8"/>
-      <c r="H18" s="8"/>
-      <c r="I18" s="5"/>
-      <c r="J18" s="5"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A19" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>47</v>
+      <c r="A19" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>39</v>
       </c>
       <c r="C19" s="6">
+        <v>43958</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="E19" s="11"/>
+      <c r="F19" s="5" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A20" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C20" s="6">
         <v>43956</v>
       </c>
-      <c r="D19" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="E19" s="7"/>
-      <c r="F19" s="5" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A20" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="B20" s="19"/>
-      <c r="C20" s="20"/>
-      <c r="D20" s="21"/>
+      <c r="D20" s="7" t="s">
+        <v>35</v>
+      </c>
       <c r="E20" s="7"/>
       <c r="F20" s="5" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A21" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="B21" s="19"/>
-      <c r="C21" s="20"/>
-      <c r="D21" s="21"/>
-      <c r="E21" s="7"/>
-      <c r="F21" s="5" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A22" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="B22" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="C22" s="6">
-        <v>43956</v>
-      </c>
-      <c r="D22" s="7" t="s">
-        <v>37</v>
-      </c>
+      <c r="G20" s="8"/>
+      <c r="H20" s="8"/>
+      <c r="I20" s="5"/>
+      <c r="J20" s="5"/>
+    </row>
+    <row r="21" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="5"/>
+      <c r="B21" s="5"/>
+      <c r="C21" s="6"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="11"/>
+      <c r="F21" s="5"/>
+    </row>
+    <row r="22" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="C22" s="6"/>
+      <c r="D22" s="7"/>
       <c r="E22" s="7"/>
-      <c r="F22" s="5" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="23" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A23" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="B23" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="C23" s="17" t="s">
-        <v>46</v>
-      </c>
-      <c r="D23" s="18" t="s">
-        <v>37</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="B23" s="13"/>
+      <c r="C23" s="14"/>
+      <c r="D23" s="15"/>
       <c r="E23" s="7"/>
       <c r="F23" s="5" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="C24" s="6"/>
-      <c r="D24" s="7"/>
-      <c r="E24" s="7"/>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="C25" s="6"/>
-      <c r="D25" s="7"/>
-      <c r="E25" s="7"/>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A26" s="5"/>
-      <c r="B26" s="5"/>
-      <c r="C26" s="10"/>
-      <c r="D26" s="11"/>
-      <c r="E26" s="11"/>
-      <c r="F26" s="5"/>
-      <c r="G26" s="8"/>
-      <c r="H26" s="8"/>
-      <c r="I26" s="5"/>
-      <c r="J26" s="5"/>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="C27" s="6"/>
-      <c r="D27" s="7"/>
-      <c r="E27" s="7"/>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B24" s="13"/>
+      <c r="C24" s="16"/>
+      <c r="D24" s="13"/>
+      <c r="E24" s="11"/>
+      <c r="F24" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="G24" s="8"/>
+      <c r="H24" s="8"/>
+      <c r="I24" s="5"/>
+      <c r="J24" s="5"/>
+    </row>
+    <row r="25" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B25" s="13"/>
+      <c r="C25" s="14"/>
+      <c r="D25" s="15"/>
+      <c r="E25" s="11"/>
+      <c r="F25" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="G25" s="8"/>
+      <c r="H25" s="8"/>
+      <c r="I25" s="5"/>
+      <c r="J25" s="5"/>
+    </row>
+    <row r="26" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="C26" s="6"/>
+      <c r="D26" s="7"/>
+      <c r="E26" s="7"/>
+    </row>
+    <row r="27" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="5"/>
+      <c r="B27" s="5"/>
+      <c r="C27" s="10"/>
+      <c r="D27" s="11"/>
+      <c r="E27" s="11"/>
+      <c r="F27" s="5"/>
+      <c r="G27" s="8"/>
+      <c r="H27" s="8"/>
+      <c r="I27" s="5"/>
+      <c r="J27" s="5"/>
+    </row>
+    <row r="28" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="C28" s="6"/>
       <c r="D28" s="7"/>
       <c r="E28" s="7"/>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="C29" s="6"/>
       <c r="D29" s="7"/>
       <c r="E29" s="7"/>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="C30" s="6"/>
       <c r="D30" s="7"/>
       <c r="E30" s="7"/>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="C31" s="6"/>
       <c r="D31" s="7"/>
       <c r="E31" s="7"/>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="C32" s="6"/>
       <c r="D32" s="7"/>
       <c r="E32" s="7"/>
     </row>
+    <row r="33" spans="3:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="C33" s="6"/>
+      <c r="D33" s="7"/>
+      <c r="E33" s="7"/>
+    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J38">
-    <sortCondition ref="C2:C38"/>
-    <sortCondition ref="D2:D38"/>
-    <sortCondition ref="A2:A38"/>
+  <autoFilter ref="A1:J33" xr:uid="{B8B17992-8BC3-AA46-9ADA-E736FAAA8894}">
+    <filterColumn colId="2">
+      <customFilters>
+        <customFilter operator="notEqual" val=" "/>
+      </customFilters>
+    </filterColumn>
+  </autoFilter>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:J20">
+    <sortCondition ref="C2:C20"/>
+    <sortCondition ref="D2:D20"/>
+    <sortCondition descending="1" ref="B2:B20"/>
+    <sortCondition ref="A2:A20"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
